--- a/src/test/resources/data1.xlsx
+++ b/src/test/resources/data1.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\irm_framework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaikatDas\OneDrive - RISKSUCCESS PRIVATE LIMITED\Documents\Automation-main\Automation-main\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54B99C-D3BF-49C4-8F37-BFD3F3A8C522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89D16AF-D011-4B84-B06A-38A4AF1B9400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6446922-BBC0-466F-8EB7-78D4006E4375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="chut" r:id="rId5" sheetId="2"/>
+    <sheet name="API Testing" r:id="rId6" sheetId="3"/>
+    <sheet name="API Testing - 01" r:id="rId7" sheetId="4"/>
+    <sheet name="API Testing Rest" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,30 +29,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>test id</t>
+    <t>Testing</t>
   </si>
   <si>
-    <t>testcase</t>
+    <t>Team</t>
   </si>
   <si>
-    <t>dip</t>
+    <t>Manual</t>
   </si>
   <si>
-    <t>deep</t>
+    <t>Automation</t>
   </si>
   <si>
-    <t>diptikanta</t>
+    <t>hot sexy lal</t>
   </si>
   <si>
-    <t>sonu</t>
+    <t>Rest Assured</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,10 +402,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.44140625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -414,19 +422,91 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>